--- a/RUDN/Importance/Varible_class_in_Northern Africa.xlsx
+++ b/RUDN/Importance/Varible_class_in_Northern Africa.xlsx
@@ -14,9 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Rural population (% of total population)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
 </sst>
 </file>
@@ -374,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +417,79 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.7250000238418579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.02500000037252903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.02500000037252903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.02500000037252903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.02500000037252903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.02500000037252903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.02500000037252903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.02500000037252903</v>
       </c>
     </row>
   </sheetData>
